--- a/dataset/Real_Label.xlsx
+++ b/dataset/Real_Label.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\code\_python\sensor_fault_dataset\dataset_for_paper\Second Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\code\_python\sensor_fault_dataset\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0F029F-FA1B-4F8D-BDCF-C2C1FA8FDFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2479773F-EFF7-4995-A66D-9434B6B798A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Label</t>
+    <t>Real_Label</t>
   </si>
 </sst>
 </file>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4114" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L4149" sqref="L4149"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dataset/Real_Label.xlsx
+++ b/dataset/Real_Label.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\code\_python\sensor_fault_dataset\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\code\_python\sensor_fault_dataset\dataset_for_paper\Second Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2479773F-EFF7-4995-A66D-9434B6B798A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0F029F-FA1B-4F8D-BDCF-C2C1FA8FDFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Real_Label</t>
+    <t>Label</t>
   </si>
 </sst>
 </file>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4114" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L4149" sqref="L4149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
